--- a/biology/Zoologie/Halszkaraptorinae/Halszkaraptorinae.xlsx
+++ b/biology/Zoologie/Halszkaraptorinae/Halszkaraptorinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Halszkaraptorinés
-Les Halszkaraptorinae (Halszkaraptorinés en français) forment une sous-famille éteinte de théropodes droméosauridés basaux érigée par le paléontologue italien Cau (d) (1978-) et ses collègues en 2017 à la suite de la création du genre Halszkaraptor[1].
+Les Halszkaraptorinae (Halszkaraptorinés en français) forment une sous-famille éteinte de théropodes droméosauridés basaux érigée par le paléontologue italien Cau (d) (1978-) et ses collègues en 2017 à la suite de la création du genre Halszkaraptor.
 Les halszkaraptorinés ne sont connus que dans le Crétacé supérieur de Mongolie.
 </t>
         </is>
@@ -513,12 +525,14 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Quatre genres sont rattachés au halszkaraptorinés[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Quatre genres sont rattachés au halszkaraptorinés :
 † Halszkaraptor Cau et al., 2017 qui a donné son nom à la sous-famille ;
-† Hulsanpes Halszka Osmólska, 1982[2];
-† Mahakala Turner[3], 2007 ;
+† Hulsanpes Halszka Osmólska, 1982;
+† Mahakala Turner, 2007 ;
 † Natovenator Lee et al., 2022.</t>
         </is>
       </c>
@@ -547,10 +561,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cladogramme suivant a été établi par Andrea Cau (d) et ses collègues en 2017[1] :
-Dans leurs analyses phylogénétiques, Lee et al. (2022) ont retrouvé Natovenator comme un membre dérivé des Halszkaraptorinae, Halszkaraptor étant le membre le plus basal du groupe. Le cladogramme ci-dessous montre les résultats de leurs analyses phylogénétiques[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cladogramme suivant a été établi par Andrea Cau (d) et ses collègues en 2017 :
+Dans leurs analyses phylogénétiques, Lee et al. (2022) ont retrouvé Natovenator comme un membre dérivé des Halszkaraptorinae, Halszkaraptor étant le membre le plus basal du groupe. Le cladogramme ci-dessous montre les résultats de leurs analyses phylogénétiques :
 </t>
         </is>
       </c>
